--- a/testData/login.xlsx
+++ b/testData/login.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView xWindow="132" yWindow="480" windowWidth="22752" windowHeight="8868"/>
-  </bookViews>
-  <sheets>
-    <sheet name="测试用例" sheetId="1" r:id="rId1"/>
-    <sheet name="登录操作步骤" sheetId="2" r:id="rId2"/>
-    <sheet name="登录信息" sheetId="3" r:id="rId3"/>
-  </sheets>
-  <calcPr calcId="125725"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="测试用例" sheetId="1" r:id="rId1"/>
+    <s:sheet name="登录操作步骤" sheetId="2" r:id="rId2"/>
+    <s:sheet name="登录信息" sheetId="3" r:id="rId3"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t>序号</t>
   </si>
@@ -63,6 +63,9 @@
     <t>y</t>
   </si>
   <si>
+    <t>2019-06-24 15:32:36</t>
+  </si>
+  <si>
     <t>pass</t>
   </si>
   <si>
@@ -102,6 +105,9 @@
     <t>FIREFOX</t>
   </si>
   <si>
+    <t>2019-06-24 15:39:37</t>
+  </si>
+  <si>
     <t>访问UAT2首页</t>
   </si>
   <si>
@@ -111,12 +117,18 @@
     <t>https://pre2mall.gree.com</t>
   </si>
   <si>
+    <t>2019-06-24 15:32:26</t>
+  </si>
+  <si>
     <t>强制等待2s</t>
   </si>
   <si>
     <t>sleep</t>
   </si>
   <si>
+    <t>2019-06-24 15:32:28</t>
+  </si>
+  <si>
     <t>点击登录</t>
   </si>
   <si>
@@ -129,6 +141,9 @@
     <t>/html/body/div[1]/div/div[3]/span/a[1]</t>
   </si>
   <si>
+    <t>2019-06-24 15:32:30</t>
+  </si>
+  <si>
     <t>清空登录框内容</t>
   </si>
   <si>
@@ -144,6 +159,9 @@
     <t>强制等待1s</t>
   </si>
   <si>
+    <t>2019-06-24 15:32:32</t>
+  </si>
+  <si>
     <t>输入用户名</t>
   </si>
   <si>
@@ -171,6 +189,9 @@
     <t>强制等待3s</t>
   </si>
   <si>
+    <t>2019-06-24 15:32:35</t>
+  </si>
+  <si>
     <t>断言账号是否登录成功</t>
   </si>
   <si>
@@ -204,39 +225,39 @@
     <t>个人中心</t>
   </si>
   <si>
+    <t>2019-06-24 15:30:20</t>
+  </si>
+  <si>
     <t>GREE123</t>
   </si>
   <si>
     <t>密码输入错误</t>
   </si>
   <si>
+    <t>2019-06-24 15:30:38</t>
+  </si>
+  <si>
     <t>不输入</t>
   </si>
   <si>
     <t>请输入登录密码</t>
   </si>
   <si>
+    <t>2019-06-24 15:30:57</t>
+  </si>
+  <si>
     <t>gree123%_</t>
   </si>
   <si>
+    <t>2019-06-24 15:31:15</t>
+  </si>
+  <si>
     <t>error1252</t>
   </si>
   <si>
     <t>用户不存在</t>
   </si>
   <si>
-    <t>2019-06-24 15:30:20</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:30:38</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:30:57</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:31:15</t>
-  </si>
-  <si>
     <t>2019-06-24 15:31:41</t>
   </si>
   <si>
@@ -246,56 +267,247 @@
     <t>2019-06-24 15:32:18</t>
   </si>
   <si>
-    <t>2019-06-24 15:32:23</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:32:26</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:32:28</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:32:30</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:32:32</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:32:35</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:32:36</t>
+    <t>2019-06-24 15:39:39</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:39:41</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:39:43</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:39:45</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:39:46</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:39:47</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:39:50</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:39:51</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:39:52</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:39:57</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:39:59</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:01</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:02</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:04</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:05</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:06</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:09</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:10</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:15</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:18</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:20</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:21</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:23</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:24</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:27</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:28</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:34</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:36</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:38</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:39</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:41</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:42</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:43</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:46</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:47</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:52</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:55</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:57</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:40:59</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:01</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:04</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:05</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:10</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:12</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:14</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:15</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:17</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:18</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:19</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:22</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:23</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:28</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:30</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:32</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:33</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:35</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:36</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:37</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:40</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:41</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:47</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:49</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:51</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:52</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:54</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:55</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:56</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:41:59</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-24 15:42:01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF008B00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF008B00"/>
+      <sz val="11"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -311,32 +523,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -626,22 +838,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="15.88671875"/>
+    <col customWidth="1" max="3" min="3" width="31.6640625"/>
+    <col customWidth="1" max="4" min="4" width="14.88671875"/>
+    <col customWidth="1" max="5" min="5" width="19.6640625"/>
+    <col customWidth="1" max="6" min="6" width="25.77734375"/>
+    <col customWidth="1" max="7" min="7" width="11"/>
+    <col customWidth="1" max="8" min="8" width="21.21875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -673,8 +889,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="1">
+    <row customHeight="1" ht="15" r="2" spans="1:9">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -696,38 +912,41 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="25.88671875"/>
+    <col customWidth="1" max="3" min="3" width="32.44140625"/>
+    <col customWidth="1" max="4" min="4" width="19.6640625"/>
+    <col customWidth="1" max="5" min="5" style="5" width="42.33203125"/>
+    <col customWidth="1" max="6" min="6" width="33.77734375"/>
+    <col customWidth="1" max="7" min="7" width="22.109375"/>
+    <col customWidth="1" max="8" min="8" width="12.77734375"/>
+    <col customWidth="1" max="9" min="9" width="13.44140625"/>
+    <col customWidth="1" max="10" min="10" width="13.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -735,381 +954,386 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1">
-      <c r="A2" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="2" spans="1:13">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1">
-      <c r="A3" s="2">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s"/>
+      <c r="J2" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="30" r="3" spans="1:13">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="2">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s"/>
+      <c r="J3" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="30" r="4" spans="1:13">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="2">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s"/>
+      <c r="J4" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="30" r="5" spans="1:13">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s"/>
+      <c r="J5" s="2" t="s"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="6" spans="1:13">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2">
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1">
-      <c r="A7" s="2">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s"/>
+      <c r="J6" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="30" r="7" spans="1:13">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s"/>
+      <c r="J7" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="30" r="8" spans="1:13">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s"/>
+      <c r="J8" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="91.95" r="9" spans="1:13">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="s"/>
+      <c r="J9" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="30" r="10" spans="1:13">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s"/>
+      <c r="J10" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="30" r="11" spans="1:13">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" ht="91.95" customHeight="1">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1">
-      <c r="A12" s="2">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2" t="s"/>
+      <c r="J11" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="30" r="12" spans="1:13">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1">
-      <c r="A13" s="2">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2" t="s"/>
+      <c r="J12" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="30" r="13" spans="1:13">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1">
-      <c r="A14" s="2">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2" t="s"/>
+      <c r="J13" s="2" t="s"/>
+    </row>
+    <row customHeight="1" ht="15" r="14" spans="1:13">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="22.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="2" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="11.44140625"/>
+    <col customWidth="1" max="2" min="2" style="2" width="16.88671875"/>
+    <col customWidth="1" max="3" min="3" style="2" width="13.109375"/>
+    <col customWidth="1" max="4" min="4" style="2" width="24"/>
+    <col customWidth="1" max="5" min="5" style="2" width="13.6640625"/>
+    <col customWidth="1" max="7" min="6" style="2" width="22.109375"/>
+    <col customWidth="1" max="8" min="8" style="2" width="10.33203125"/>
+    <col customWidth="1" max="9" min="9" style="2" width="27.33203125"/>
+    <col customWidth="1" max="10" min="10" style="2" width="10.77734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1117,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -1132,196 +1356,195 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2" spans="1:10">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="n">
         <v>18866478774</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3" spans="1:10">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>18866478774</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" spans="1:10">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="n">
         <v>18866478774</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" spans="1:10">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>18866478774</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>18866478774</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" spans="1:10">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" spans="1:10">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" spans="1:10">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15">
-      <c r="A9" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" spans="1:10">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="1200" orientation="portrait" paperSize="9" verticalDpi="1200"/>
 </worksheet>
 </file>
--- a/testData/login.xlsx
+++ b/testData/login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>序号</t>
   </si>
@@ -63,418 +63,364 @@
     <t>y</t>
   </si>
   <si>
-    <t>2019-06-24 15:32:36</t>
+    <t>测试步骤描述</t>
+  </si>
+  <si>
+    <t>关键字</t>
+  </si>
+  <si>
+    <t>操作元素定位方式</t>
+  </si>
+  <si>
+    <t>操作元素定位表达式</t>
+  </si>
+  <si>
+    <t>操作值</t>
+  </si>
+  <si>
+    <t>测试执行时间</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>错误信息</t>
+  </si>
+  <si>
+    <t>错误截图</t>
+  </si>
+  <si>
+    <t>打开浏览器</t>
+  </si>
+  <si>
+    <t>open_browser</t>
+  </si>
+  <si>
+    <t>FIREFOX</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:23:59</t>
+  </si>
+  <si>
+    <t>访问UAT2首页</t>
+  </si>
+  <si>
+    <t>visit_url</t>
+  </si>
+  <si>
+    <t>https://pre2mall.gree.com</t>
+  </si>
+  <si>
+    <t>强制等待2s</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>点击登录</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div[3]/span/a[1]</t>
+  </si>
+  <si>
+    <t>清空登录框内容</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>loginname_id</t>
+  </si>
+  <si>
+    <t>强制等待1s</t>
+  </si>
+  <si>
+    <t>输入用户名</t>
+  </si>
+  <si>
+    <t>input_string</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>loginpwd_id</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>点击登录按键</t>
+  </si>
+  <si>
+    <t>btn_submit</t>
+  </si>
+  <si>
+    <t>强制等待3s</t>
+  </si>
+  <si>
+    <t>断言账号是否登录成功</t>
+  </si>
+  <si>
+    <t>assert_string_in_pagesource</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>关闭浏览器</t>
+  </si>
+  <si>
+    <t>close_browser</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>登录后出现的提示语</t>
+  </si>
+  <si>
+    <t>执行结果</t>
+  </si>
+  <si>
+    <t>gree123</t>
+  </si>
+  <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>GREE123</t>
+  </si>
+  <si>
+    <t>密码输入错误</t>
+  </si>
+  <si>
+    <t>不输入</t>
+  </si>
+  <si>
+    <t>请输入登录密码</t>
+  </si>
+  <si>
+    <t>gree123%_</t>
+  </si>
+  <si>
+    <t>error1252</t>
+  </si>
+  <si>
+    <t>用户不存在</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>测试步骤描述</t>
-  </si>
-  <si>
-    <t>关键字</t>
-  </si>
-  <si>
-    <t>操作元素定位方式</t>
-  </si>
-  <si>
-    <t>操作元素定位表达式</t>
-  </si>
-  <si>
-    <t>操作值</t>
-  </si>
-  <si>
-    <t>测试执行时间</t>
-  </si>
-  <si>
-    <t>测试结果</t>
-  </si>
-  <si>
-    <t>错误信息</t>
-  </si>
-  <si>
-    <t>错误截图</t>
-  </si>
-  <si>
-    <t>打开浏览器</t>
-  </si>
-  <si>
-    <t>open_browser</t>
-  </si>
-  <si>
-    <t>FIREFOX</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:39:37</t>
-  </si>
-  <si>
-    <t>访问UAT2首页</t>
-  </si>
-  <si>
-    <t>visit_url</t>
-  </si>
-  <si>
-    <t>https://pre2mall.gree.com</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:32:26</t>
-  </si>
-  <si>
-    <t>强制等待2s</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:32:28</t>
-  </si>
-  <si>
-    <t>点击登录</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div[3]/span/a[1]</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:32:30</t>
-  </si>
-  <si>
-    <t>清空登录框内容</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>loginname_id</t>
-  </si>
-  <si>
-    <t>强制等待1s</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:32:32</t>
-  </si>
-  <si>
-    <t>输入用户名</t>
-  </si>
-  <si>
-    <t>input_string</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>输入密码</t>
-  </si>
-  <si>
-    <t>loginpwd_id</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>点击登录按键</t>
-  </si>
-  <si>
-    <t>btn_submit</t>
-  </si>
-  <si>
-    <t>强制等待3s</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:32:35</t>
-  </si>
-  <si>
-    <t>断言账号是否登录成功</t>
-  </si>
-  <si>
-    <t>assert_string_in_pagesource</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>关闭浏览器</t>
-  </si>
-  <si>
-    <t>close_browser</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>登录后出现的提示语</t>
-  </si>
-  <si>
-    <t>执行结果</t>
-  </si>
-  <si>
-    <t>gree123</t>
-  </si>
-  <si>
-    <t>个人中心</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:30:20</t>
-  </si>
-  <si>
-    <t>GREE123</t>
-  </si>
-  <si>
-    <t>密码输入错误</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:30:38</t>
-  </si>
-  <si>
-    <t>不输入</t>
-  </si>
-  <si>
-    <t>请输入登录密码</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:30:57</t>
-  </si>
-  <si>
-    <t>gree123%_</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:31:15</t>
-  </si>
-  <si>
-    <t>error1252</t>
-  </si>
-  <si>
-    <t>用户不存在</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:31:41</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:32:18</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:39:39</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:39:41</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:39:43</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:39:45</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:39:46</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:39:47</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:39:50</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:39:51</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:39:52</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:39:57</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:39:59</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:01</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:02</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:04</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:05</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:06</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:09</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:10</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:15</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:18</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:20</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:21</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:23</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:24</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:27</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:28</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:34</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:36</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:38</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:39</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:41</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:42</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:43</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:46</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:47</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:52</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:55</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:57</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:40:59</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:01</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:04</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:05</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:10</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:12</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:14</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:15</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:17</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:18</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:19</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:22</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:23</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:28</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:30</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:32</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:33</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:35</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:36</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:37</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:40</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:41</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:47</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:49</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:51</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:52</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:54</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:55</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:56</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:41:59</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-24 15:42:01</t>
+    <t>2019-06-24 16:24:05</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:07</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:08</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:10</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:11</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:13</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:16</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:17</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:22</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:24</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:27</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:29</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:30</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:31</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:34</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:35</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:40</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:42</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:24:44</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:02</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:03</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:06</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:07</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:13</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:22</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:24</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:27</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:29</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:30</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:31</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:34</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:35</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:40</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:44</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:46</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:47</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:49</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:50</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:53</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:25:54</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:02</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:04</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:05</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:07</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:08</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:11</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:12</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:18</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:21</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:23</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:25</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:26</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:27</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:30</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:31</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:36</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:40</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:42</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:44</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:45</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:46</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:49</t>
+  </si>
+  <si>
+    <t>2019-06-24 16:26:50</t>
   </si>
 </sst>
 </file>
@@ -846,7 +792,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -912,10 +858,10 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -932,8 +878,8 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -954,31 +900,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:13">
@@ -986,21 +932,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="n"/>
       <c r="E2" s="1" t="n"/>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s"/>
       <c r="J2" s="2" t="s"/>
@@ -1010,21 +956,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="n"/>
       <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s"/>
       <c r="J3" s="2" t="s"/>
@@ -1034,10 +980,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="n"/>
       <c r="E4" s="1" t="n"/>
@@ -1045,10 +991,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s"/>
       <c r="J4" s="2" t="s"/>
@@ -1058,23 +1004,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I5" s="2" t="s"/>
       <c r="J5" s="2" t="s"/>
@@ -1087,10 +1033,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="n"/>
       <c r="E6" s="1" t="n"/>
@@ -1098,10 +1044,10 @@
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2" t="s"/>
       <c r="J6" s="2" t="s"/>
@@ -1111,23 +1057,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I7" s="2" t="s"/>
       <c r="J7" s="2" t="s"/>
@@ -1137,10 +1083,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="n"/>
       <c r="E8" s="1" t="n"/>
@@ -1148,10 +1094,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I8" s="2" t="s"/>
       <c r="J8" s="2" t="s"/>
@@ -1161,25 +1107,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I9" s="2" t="s"/>
       <c r="J9" s="2" t="s"/>
@@ -1189,25 +1135,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I10" s="2" t="s"/>
       <c r="J10" s="2" t="s"/>
@@ -1217,23 +1163,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I11" s="2" t="s"/>
       <c r="J11" s="2" t="s"/>
@@ -1243,10 +1189,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="n"/>
       <c r="E12" s="1" t="n"/>
@@ -1254,10 +1200,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I12" s="2" t="s"/>
       <c r="J12" s="2" t="s"/>
@@ -1267,21 +1213,21 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="n"/>
       <c r="E13" s="1" t="n"/>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I13" s="2" t="s"/>
       <c r="J13" s="2" t="s"/>
@@ -1291,16 +1237,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s"/>
       <c r="J14" t="s"/>
@@ -1320,7 +1266,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I2" sqref="I2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1341,13 +1287,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -1356,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="2" spans="1:10">
@@ -1367,19 +1313,19 @@
         <v>18866478774</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="3" spans="1:10">
@@ -1390,19 +1336,19 @@
         <v>18866478774</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="4" spans="1:10">
@@ -1413,19 +1359,19 @@
         <v>18866478774</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="5" spans="1:10">
@@ -1436,19 +1382,19 @@
         <v>18866478774</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="6" spans="1:10">
@@ -1456,22 +1402,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="7" spans="1:10">
@@ -1479,22 +1425,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="8" spans="1:10">
@@ -1502,22 +1448,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="9" spans="1:10">
@@ -1525,22 +1471,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
